--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -226,11 +226,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -630,24 +630,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="95983488"/>
-        <c:axId val="95985024"/>
+        <c:axId val="95679232"/>
+        <c:axId val="95680768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95983488"/>
+        <c:axId val="95679232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95985024"/>
+        <c:crossAx val="95680768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95985024"/>
+        <c:axId val="95680768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -655,7 +655,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95983488"/>
+        <c:crossAx val="95679232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -668,7 +668,588 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Internet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Google</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Youtube</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Apple</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Yahoo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LinkedIn</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Wikipedia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Amazon</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Twitter</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Pinterest</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Quora</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.675</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4744000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1189999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4122500000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2862499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3742000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4018000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9276</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7319999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tor Test 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Google</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Youtube</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Apple</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Yahoo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LinkedIn</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Wikipedia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Amazon</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Twitter</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Pinterest</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Quora</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.3370000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5371399999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.423</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2994000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8764000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0481999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3446000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5584000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2770000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="144945920"/>
+        <c:axId val="144947456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="144945920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="144947456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="144947456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="144945920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Internet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Google</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Youtube</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Apple</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Yahoo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LinkedIn</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Wikipedia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Amazon</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Twitter</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Pinterest</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Quora</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.675</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4744000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1189999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4122500000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2862499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3742000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4018000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9276</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7319999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tor Test 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Google</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Youtube</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Apple</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Yahoo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LinkedIn</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Wikipedia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Amazon</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Twitter</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Pinterest</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Quora</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.3370000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5371399999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.423</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2994000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8764000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0481999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3446000000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5584000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2770000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tor Test 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Google</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Youtube</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Apple</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Yahoo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LinkedIn</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Wikipedia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Amazon</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Twitter</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Pinterest</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Quora</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.2340000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7507999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7219999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1808000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7331999999999992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3778000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8162000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6265999999999989</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4481999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="15771136"/>
+        <c:axId val="15772672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="15771136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="15772672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="15772672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="15771136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -701,6 +1282,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -996,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1010,16 +1651,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25">
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
@@ -1218,13 +1859,13 @@
       <c r="B13" s="8">
         <v>2.7319999999999998</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>4.2770000000000001</v>
       </c>
       <c r="D13" s="8">
         <v>4.4481999999999999</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>4.8834</v>
       </c>
       <c r="F13" s="9"/>
